--- a/BOM/LaserDSBoard BOM_20180519.xlsx
+++ b/BOM/LaserDSBoard BOM_20180519.xlsx
@@ -437,10 +437,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>http://www.tij.co.jp/product/jp/TPL0401A-10</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>IC</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -991,6 +987,10 @@
   </si>
   <si>
     <t>R51</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/22265a.pdf</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -5876,8 +5876,8 @@
   </sheetPr>
   <dimension ref="B2:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A27" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E48" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5932,7 +5932,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G5" s="28">
         <v>31</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>21</v>
@@ -6016,7 +6016,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" s="32">
         <v>1</v>
@@ -6037,7 +6037,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" s="33">
         <v>7</v>
@@ -6116,7 +6116,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -6126,48 +6126,48 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="F17" s="28" t="s">
         <v>135</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>136</v>
       </c>
       <c r="G17" s="28">
         <v>1</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="D18" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="28" t="s">
+      <c r="F18" s="28" t="s">
         <v>141</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>142</v>
       </c>
       <c r="G18" s="28">
         <v>1</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
@@ -6180,7 +6180,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="45"/>
@@ -6191,25 +6191,25 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="F21" s="50" t="s">
         <v>153</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>154</v>
       </c>
       <c r="G21" s="49">
         <v>2</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
@@ -6265,7 +6265,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="32">
         <v>1</v>
@@ -6286,7 +6286,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G26" s="32">
         <v>2</v>
@@ -6307,7 +6307,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G27" s="32">
         <v>1</v>
@@ -6347,7 +6347,7 @@
         <v>19</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G30" s="33">
         <v>1</v>
@@ -6358,38 +6358,38 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="32" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G31" s="33">
         <v>6</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="32" t="s">
         <v>51</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G32" s="33">
         <v>2</v>
@@ -6408,13 +6408,13 @@
         <v>53</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G33" s="53">
         <v>4</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
@@ -6513,7 +6513,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G40" s="32">
         <v>4</v>
@@ -6528,10 +6528,10 @@
         <v>70</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>71</v>
@@ -6540,7 +6540,7 @@
         <v>6</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -6557,7 +6557,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G42" s="54">
         <v>3</v>
@@ -6578,7 +6578,7 @@
         <v>19</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G43" s="13">
         <v>10</v>
@@ -6587,10 +6587,10 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>19</v>
@@ -6599,7 +6599,7 @@
         <v>19</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G44" s="33">
         <v>7</v>
@@ -6611,7 +6611,7 @@
         <v>74</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>19</v>
@@ -6620,7 +6620,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G45" s="33">
         <v>2</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C46" s="60" t="s">
         <v>70</v>
@@ -6641,7 +6641,7 @@
         <v>19</v>
       </c>
       <c r="F46" s="62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G46" s="63">
         <v>1</v>
@@ -6662,7 +6662,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G47" s="58">
         <v>10</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C49" s="30" t="s">
         <v>21</v>
@@ -6704,7 +6704,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G49" s="32">
         <v>1</v>
@@ -6767,7 +6767,7 @@
         <v>19</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G52" s="32">
         <v>2</v>
@@ -6809,7 +6809,7 @@
         <v>19</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G54" s="13">
         <v>12</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C56" s="43"/>
       <c r="D56" s="43"/>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C59" s="23" t="s">
         <v>90</v>
@@ -6890,7 +6890,7 @@
         <v>9</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G59" s="32">
         <v>3</v>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>96</v>
@@ -6919,7 +6919,7 @@
         <v>2</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
@@ -7025,10 +7025,10 @@
         <v>114</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G65" s="32">
         <v>13</v>
@@ -7048,16 +7048,16 @@
         <v>114</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G66" s="53">
         <v>3</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
@@ -7068,19 +7068,19 @@
         <v>119</v>
       </c>
       <c r="D67" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67" s="26" t="s">
         <v>165</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>166</v>
       </c>
       <c r="G67" s="53">
         <v>2</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
@@ -7093,7 +7093,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
@@ -7103,14 +7103,14 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" s="32"/>
       <c r="D70" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="32" t="s">
         <v>129</v>
-      </c>
-      <c r="E70" s="32" t="s">
-        <v>130</v>
       </c>
       <c r="F70" s="55"/>
       <c r="G70" s="57">
@@ -7149,10 +7149,10 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="39.6" x14ac:dyDescent="0.2">
@@ -7160,7 +7160,7 @@
         <v>20180507</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -7168,7 +7168,7 @@
         <v>20180519</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
